--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\EVCRSbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/trans/evcrsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6493CFD-7C39-4D67-A92E-8BFC2549E335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E997E08A-AE57-8F43-A00B-90FC12E6C85A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="15880" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -313,6 +313,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,21 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0DBC6-BBF6-4FFA-8935-A589DD9D6AFF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,27 +654,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -688,20 +692,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -715,7 +719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -730,7 +734,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -745,7 +749,7 @@
         <v>0.32499999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -760,7 +764,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -775,22 +779,22 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -804,7 +808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -819,7 +823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -834,7 +838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -863,13 +867,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="43" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="43" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>

--- a/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
+++ b/InputData/trans/EVCRSbRIC/EV Charger Revenue Share by Recip ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/trans/evcrsbric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/evcrsbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E997E08A-AE57-8F43-A00B-90FC12E6C85A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB26490-AB17-E14B-B330-DF7CD09BDCCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="15880" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{6DD38E28-D572-4B43-9762-4D2A32B496C8}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
